--- a/Project Time Estimate RPG.xlsx
+++ b/Project Time Estimate RPG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D6A1A7-CA8D-4169-8E96-2C7BD404009A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A45529-9860-4725-8898-C1CE6FE1E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>장애물 제작 및 플레이어 피격</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>마을 구현</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -156,12 +152,32 @@
     <t>퀘스트 구현</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>기본적인 씬 전환 구성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 따라 움직이는 카메라</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 제작 및 플레이어 피격, 공격</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -237,6 +253,13 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -293,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -310,30 +333,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,12 +364,34 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -572,10 +610,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -584,387 +622,460 @@
     <col min="2" max="2" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="D1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="D3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="H14" s="7">
+        <f>(COUNTIF(C3:C21,"SHORT")*B26)+(COUNTIF(C3:C21,"MEDIUM"*B27)+(COUNTIF(C3:C21,"LONG")*B28)+(COUNTIF(C3:C21,"EPIC")*B29)+(COUNTIF(C3:C21,"R&amp;D")*B30))</f>
+        <v>168</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="8">
+        <f>H14/B31</f>
+        <v>21</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="34"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B27" s="24">
+        <v>6</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="28" t="s">
+      <c r="B28" s="26">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="B29" s="28">
+        <v>24</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="30">
+        <v>40</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="32">
         <v>8</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="23">
-        <f>(COUNTIF(C2:C19,"SHORT")*B24)+(COUNTIF(C2:C19,"MEDIUM"*B25)+(COUNTIF(C2:C19,"LONG")*B26)+(COUNTIF(C2:C19,"EPIC")*B27)+(COUNTIF(C2:C19,"R&amp;D")*B28))</f>
-        <v>168</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="24">
-        <f>D12/B29</f>
-        <v>21</v>
-      </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="10">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="12">
-        <v>16</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="14">
-        <v>24</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="16">
-        <v>40</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="18">
-        <v>8</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="34"/>
+    </row>
+    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="D12:E19"/>
-    <mergeCell ref="F12:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="H14:I21"/>
+    <mergeCell ref="J14:K21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H22:K22"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"-,SHORT,MEDIUM,LONG,EPIC,R&amp;D"</formula1>
     </dataValidation>
   </dataValidations>
